--- a/zz_document/project_Parfait/画面ショット/20220506画面ショット_未対応.xlsx
+++ b/zz_document/project_Parfait/画面ショット/20220506画面ショット_未対応.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\画面ショット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B803E2-D3C4-4764-8387-9221CDFE7E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCFF77B-A6F6-49A7-95B5-EBD113DD2592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4018,8 +4018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U233" sqref="U233"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V90" sqref="V90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
